--- a/stockcau/nuevo_inventario.xlsx
+++ b/stockcau/nuevo_inventario.xlsx
@@ -1,13 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="10" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Celulares CAU" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Equipos CAU" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monitores CAU" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Perifericos CAU" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Memorias CAU" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pantallas T4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monitores T4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Perifericos T4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Computadoras T4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yenny" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Asignaciones" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -422,4 +432,174 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>